--- a/QuantLibXL/Data/XLS/010_StartUp/020_Indexes/GbpLibor.xlsx
+++ b/QuantLibXL/Data/XLS/010_StartUp/020_Indexes/GbpLibor.xlsx
@@ -816,13 +816,15 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="Feuil1"/>
+      <sheetName val="Menu"/>
+      <sheetName val="Sheet1"/>
     </sheetNames>
     <definedNames>
       <definedName name="qlSerializationPath"/>
     </definedNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1137,7 +1139,7 @@
     <row r="1" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="15" t="str">
         <f>_xll.qlxlVersion(TRUE,Trigger)</f>
-        <v>QuantLibXL 1.2.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Jan 18 2013 12:11:06</v>
+        <v>QuantLibXL 1.3.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Nov  4 2013 11:55:45</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -1217,7 +1219,7 @@
       </c>
       <c r="D9" s="23" t="str">
         <f>[1]!qlSerializationPath(Trigger)</f>
-        <v>\\srv0001\risorse\WorkGroup\IMI_Workbooks\Production\QLXL_R01030x\Data\XML\010_StartUp\020_Indexes\</v>
+        <v>C:\Projects\quantlib\QuantLibXL\Data\XML\010_StartUp\020_Indexes\</v>
       </c>
       <c r="E9" s="12"/>
     </row>
@@ -1353,14 +1355,14 @@
         <f>PROPER(Currency)&amp;FamilyName&amp;".xml"</f>
         <v>GbpLibor.xml</v>
       </c>
-      <c r="F5" s="48">
+      <c r="F5" s="48" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(F7:G22,SerializationPath&amp;FileName,FileOverwrite,Serialize),"---")</f>
-        <v>32</v>
+        <v>#NUM!</v>
       </c>
       <c r="G5" s="22"/>
       <c r="H5" s="46" t="str">
-        <f>_xll.ohRangeRetrieveError(F5)</f>
-        <v/>
+        <f ca="1">_xll.ohRangeRetrieveError(F5)</f>
+        <v>ohObjectSave - Invalid parent path : C:\Projects\quantlib\QuantLibXL\Data\XML\010_StartUp\020_Indexes\GbpLibor.xml</v>
       </c>
       <c r="I5" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(G5)</f>
@@ -2040,13 +2042,13 @@
         <f>PROPER(Currency)&amp;FamilyName&amp;FixingType&amp;".xml"</f>
         <v>GbpLiborSwapIsda.xml</v>
       </c>
-      <c r="F6" s="34">
+      <c r="F6" s="34" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(F7:F66,SerializationPath&amp;FileName,FileOverwrite,Serialize),"---")</f>
-        <v>60</v>
+        <v>#NUM!</v>
       </c>
       <c r="G6" s="37" t="str">
-        <f>_xll.ohRangeRetrieveError(F6)</f>
-        <v/>
+        <f ca="1">_xll.ohRangeRetrieveError(F6)</f>
+        <v>ohObjectSave - Invalid parent path : C:\Projects\quantlib\QuantLibXL\Data\XML\010_StartUp\020_Indexes\GbpLiborSwapIsda.xml</v>
       </c>
       <c r="H6" s="35"/>
       <c r="J6" s="14"/>
@@ -3703,14 +3705,14 @@
         <f>PROPER(Currency)&amp;FamilyName&amp;".xml"</f>
         <v>GbpLibor-Mx.xml</v>
       </c>
-      <c r="F5" s="48">
+      <c r="F5" s="48" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(F7:G22,SerializationPath&amp;FileName,FileOverwrite,Serialize),"---")</f>
-        <v>30</v>
+        <v>#NUM!</v>
       </c>
       <c r="G5" s="22"/>
-      <c r="H5" s="46" t="str">
-        <f>_xll.ohRangeRetrieveError(F5)</f>
-        <v/>
+      <c r="H5" s="46" t="e">
+        <f ca="1">_xll.ohRangeRetrieveError(F5)</f>
+        <v>#NUM!</v>
       </c>
       <c r="I5" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(G5)</f>
@@ -4378,13 +4380,13 @@
         <f>PROPER(Currency)&amp;FamilyName&amp;FixingType&amp;".xml"</f>
         <v>GbpLiborSwap-MxIsda.xml</v>
       </c>
-      <c r="F6" s="34">
+      <c r="F6" s="34" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(F7:F66,SerializationPath&amp;FileName,FileOverwrite,Serialize),"---")</f>
-        <v>60</v>
-      </c>
-      <c r="G6" s="37" t="str">
-        <f>_xll.ohRangeRetrieveError(F6)</f>
-        <v/>
+        <v>#NUM!</v>
+      </c>
+      <c r="G6" s="37" t="e">
+        <f ca="1">_xll.ohRangeRetrieveError(F6)</f>
+        <v>#NUM!</v>
       </c>
       <c r="H6" s="35"/>
       <c r="J6" s="14"/>

--- a/QuantLibXL/Data/XLS/010_StartUp/020_Indexes/GbpLibor.xlsx
+++ b/QuantLibXL/Data/XLS/010_StartUp/020_Indexes/GbpLibor.xlsx
@@ -13,9 +13,6 @@
     <sheet name="Libor (2)" sheetId="7" r:id="rId4"/>
     <sheet name="LiborSwapIsda (2)" sheetId="8" r:id="rId5"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId6"/>
-  </externalReferences>
   <definedNames>
     <definedName name="Currency">'General Settings'!$D$5</definedName>
     <definedName name="Discounting">'General Settings'!$D$11</definedName>
@@ -42,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="107">
   <si>
     <t>Trigger</t>
   </si>
@@ -360,6 +357,9 @@
   </si>
   <si>
     <t>Discounting2</t>
+  </si>
+  <si>
+    <t>C:\Users\erik\junk\</t>
   </si>
 </sst>
 </file>
@@ -812,24 +812,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Menu"/>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <definedNames>
-      <definedName name="qlSerializationPath"/>
-    </definedNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1217,9 +1199,8 @@
       <c r="C9" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="23" t="str">
-        <f>[1]!qlSerializationPath(Trigger)</f>
-        <v>C:\Projects\quantlib\QuantLibXL\Data\XML\010_StartUp\020_Indexes\</v>
+      <c r="D9" s="23" t="s">
+        <v>106</v>
       </c>
       <c r="E9" s="12"/>
     </row>
@@ -1362,7 +1343,7 @@
       <c r="G5" s="22"/>
       <c r="H5" s="46" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F5)</f>
-        <v>ohObjectSave - Invalid parent path : C:\Projects\quantlib\QuantLibXL\Data\XML\010_StartUp\020_Indexes\GbpLibor.xml</v>
+        <v/>
       </c>
       <c r="I5" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(G5)</f>
@@ -2048,7 +2029,7 @@
       </c>
       <c r="G6" s="37" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F6)</f>
-        <v>ohObjectSave - Invalid parent path : C:\Projects\quantlib\QuantLibXL\Data\XML\010_StartUp\020_Indexes\GbpLiborSwapIsda.xml</v>
+        <v/>
       </c>
       <c r="H6" s="35"/>
       <c r="J6" s="14"/>
@@ -3710,9 +3691,9 @@
         <v>#NUM!</v>
       </c>
       <c r="G5" s="22"/>
-      <c r="H5" s="46" t="e">
+      <c r="H5" s="46" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F5)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="I5" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(G5)</f>
@@ -4384,9 +4365,9 @@
         <f>IF(Serialize,_xll.ohObjectSave(F7:F66,SerializationPath&amp;FileName,FileOverwrite,Serialize),"---")</f>
         <v>#NUM!</v>
       </c>
-      <c r="G6" s="37" t="e">
+      <c r="G6" s="37" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F6)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="H6" s="35"/>
       <c r="J6" s="14"/>

--- a/QuantLibXL/Data/XLS/010_StartUp/020_Indexes/GbpLibor.xlsx
+++ b/QuantLibXL/Data/XLS/010_StartUp/020_Indexes/GbpLibor.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="106">
   <si>
     <t>Trigger</t>
   </si>
@@ -357,9 +357,6 @@
   </si>
   <si>
     <t>Discounting2</t>
-  </si>
-  <si>
-    <t>C:\Users\erik\junk\</t>
   </si>
 </sst>
 </file>
@@ -1199,8 +1196,9 @@
       <c r="C9" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="23" t="s">
-        <v>106</v>
+      <c r="D9" s="23" t="str">
+        <f ca="1">SUBSTITUTE(LEFT(CELL("filename",A1),FIND("[",CELL("filename",A1),1)-1),"\XLS\","\XML\")</f>
+        <v>C:\Users\erik\Documents\repos\quantlib_nando\QuantLibXL\Data\XML\010_StartUp\020_Indexes\</v>
       </c>
       <c r="E9" s="12"/>
     </row>
@@ -1337,13 +1335,13 @@
         <v>GbpLibor.xml</v>
       </c>
       <c r="F5" s="48" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(F7:G22,SerializationPath&amp;FileName,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(F7:G22,SerializationPath&amp;FileName,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
       </c>
       <c r="G5" s="22"/>
-      <c r="H5" s="46" t="str">
+      <c r="H5" s="46" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(F5)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="I5" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(G5)</f>
@@ -2024,12 +2022,12 @@
         <v>GbpLiborSwapIsda.xml</v>
       </c>
       <c r="F6" s="34" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(F7:F66,SerializationPath&amp;FileName,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G6" s="37" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(F7:F66,SerializationPath&amp;FileName,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G6" s="37" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(F6)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="H6" s="35"/>
       <c r="J6" s="14"/>
@@ -3687,13 +3685,13 @@
         <v>GbpLibor-Mx.xml</v>
       </c>
       <c r="F5" s="48" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(F7:G22,SerializationPath&amp;FileName,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(F7:G22,SerializationPath&amp;FileName,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
       </c>
       <c r="G5" s="22"/>
-      <c r="H5" s="46" t="str">
+      <c r="H5" s="46" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(F5)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="I5" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(G5)</f>
@@ -4362,12 +4360,12 @@
         <v>GbpLiborSwap-MxIsda.xml</v>
       </c>
       <c r="F6" s="34" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(F7:F66,SerializationPath&amp;FileName,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G6" s="37" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(F7:F66,SerializationPath&amp;FileName,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G6" s="37" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(F6)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="H6" s="35"/>
       <c r="J6" s="14"/>

--- a/QuantLibXL/Data/XLS/010_StartUp/020_Indexes/GbpLibor.xlsx
+++ b/QuantLibXL/Data/XLS/010_StartUp/020_Indexes/GbpLibor.xlsx
@@ -1118,7 +1118,7 @@
     <row r="1" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="15" t="str">
         <f>_xll.qlxlVersion(TRUE,Trigger)</f>
-        <v>QuantLibXL 1.3.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Nov  4 2013 11:55:45</v>
+        <v>QuantLibXL 1.3.0 - MS VC++ 9.0 - Multithreaded Static Runtime library - Release Configuration - Nov  6 2013 01:01:46</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -1198,7 +1198,7 @@
       </c>
       <c r="D9" s="23" t="str">
         <f ca="1">SUBSTITUTE(LEFT(CELL("filename",A1),FIND("[",CELL("filename",A1),1)-1),"\XLS\","\XML\")</f>
-        <v>C:\Users\erik\Documents\repos\quantlib_nando\QuantLibXL\Data\XML\010_StartUp\020_Indexes\</v>
+        <v>C:\Projects\quantlib\QuantLibXL\Data\XML\010_StartUp\020_Indexes\</v>
       </c>
       <c r="E9" s="12"/>
     </row>
@@ -1334,14 +1334,14 @@
         <f>PROPER(Currency)&amp;FamilyName&amp;".xml"</f>
         <v>GbpLibor.xml</v>
       </c>
-      <c r="F5" s="48" t="e">
-        <f ca="1">IF(Serialize,_xll.ohObjectSave(F7:G22,SerializationPath&amp;FileName,FileOverwrite,Serialize),"---")</f>
-        <v>#NAME?</v>
+      <c r="F5" s="48">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(F7:G22,SerializationPath&amp;FileName,FileOverwrite,,Serialize),"---")</f>
+        <v>32</v>
       </c>
       <c r="G5" s="22"/>
-      <c r="H5" s="46" t="e">
+      <c r="H5" s="46" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F5)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="I5" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(G5)</f>
@@ -1362,11 +1362,11 @@
       </c>
       <c r="F6" s="49" t="str">
         <f>_xll.qlSonia($E6,Currency&amp;$D6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>Sonia2#0001</v>
+        <v>Sonia2#0002</v>
       </c>
       <c r="G6" s="49" t="str">
         <f>_xll.qlLastFixingQuote(E6&amp;"LastFixing_Quote",F6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>Sonia2LastFixing_Quote#0001</v>
+        <v>Sonia2LastFixing_Quote#0002</v>
       </c>
       <c r="H6" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F6)</f>
@@ -1395,11 +1395,11 @@
       </c>
       <c r="F7" s="49" t="str">
         <f>_xll.qlSonia($E7,Currency&amp;$D7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>Sonia#0001</v>
+        <v>Sonia#0002</v>
       </c>
       <c r="G7" s="49" t="str">
         <f>_xll.qlLastFixingQuote(E7&amp;"LastFixing_Quote",F7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SoniaLastFixing_Quote#0001</v>
+        <v>SoniaLastFixing_Quote#0002</v>
       </c>
       <c r="H7" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F7)</f>
@@ -1429,11 +1429,11 @@
       </c>
       <c r="F8" s="49" t="str">
         <f>_xll.qlLibor($E8,Currency,$C8,Currency&amp;$D8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLiborSW#0001</v>
+        <v>GbpLiborSW#0002</v>
       </c>
       <c r="G8" s="49" t="str">
         <f>_xll.qlLastFixingQuote(E8&amp;"LastFixing_Quote",F8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLiborSWLastFixing_Quote#0001</v>
+        <v>GbpLiborSWLastFixing_Quote#0002</v>
       </c>
       <c r="H8" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F8)</f>
@@ -1463,11 +1463,11 @@
       </c>
       <c r="F9" s="49" t="str">
         <f>_xll.qlLibor($E9,Currency,$C9,Currency&amp;$D9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLibor2W#0001</v>
+        <v>GbpLibor2W#0002</v>
       </c>
       <c r="G9" s="49" t="str">
         <f>_xll.qlLastFixingQuote(E9&amp;"LastFixing_Quote",F9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLibor2WLastFixing_Quote#0001</v>
+        <v>GbpLibor2WLastFixing_Quote#0002</v>
       </c>
       <c r="H9" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F9)</f>
@@ -1497,11 +1497,11 @@
       </c>
       <c r="F10" s="49" t="str">
         <f>_xll.qlLibor($E10,Currency,$C10,Currency&amp;$D10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLibor3W#0001</v>
+        <v>GbpLibor3W#0002</v>
       </c>
       <c r="G10" s="49" t="str">
         <f>_xll.qlLastFixingQuote(E10&amp;"LastFixing_Quote",F10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLibor3WLastFixing_Quote#0001</v>
+        <v>GbpLibor3WLastFixing_Quote#0002</v>
       </c>
       <c r="H10" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F10)</f>
@@ -1531,11 +1531,11 @@
       </c>
       <c r="F11" s="49" t="str">
         <f>_xll.qlLibor($E11,Currency,$C11,Currency&amp;$D11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLibor1M#0001</v>
+        <v>GbpLibor1M#0002</v>
       </c>
       <c r="G11" s="49" t="str">
         <f>_xll.qlLastFixingQuote(E11&amp;"LastFixing_Quote",F11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLibor1MLastFixing_Quote#0001</v>
+        <v>GbpLibor1MLastFixing_Quote#0002</v>
       </c>
       <c r="H11" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F11)</f>
@@ -1565,11 +1565,11 @@
       </c>
       <c r="F12" s="49" t="str">
         <f>_xll.qlLibor($E12,Currency,$C12,Currency&amp;$D12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLibor2M#0001</v>
+        <v>GbpLibor2M#0002</v>
       </c>
       <c r="G12" s="49" t="str">
         <f>_xll.qlLastFixingQuote(E12&amp;"LastFixing_Quote",F12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLibor2MLastFixing_Quote#0001</v>
+        <v>GbpLibor2MLastFixing_Quote#0002</v>
       </c>
       <c r="H12" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F12)</f>
@@ -1599,11 +1599,11 @@
       </c>
       <c r="F13" s="49" t="str">
         <f>_xll.qlLibor($E13,Currency,$C13,Currency&amp;$D13,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLibor3M#0001</v>
+        <v>GbpLibor3M#0002</v>
       </c>
       <c r="G13" s="49" t="str">
         <f>_xll.qlLastFixingQuote(E13&amp;"LastFixing_Quote",F13,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLibor3MLastFixing_Quote#0001</v>
+        <v>GbpLibor3MLastFixing_Quote#0002</v>
       </c>
       <c r="H13" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F13)</f>
@@ -1633,11 +1633,11 @@
       </c>
       <c r="F14" s="49" t="str">
         <f>_xll.qlLibor($E14,Currency,$C14,Currency&amp;$D14,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLibor4M#0001</v>
+        <v>GbpLibor4M#0002</v>
       </c>
       <c r="G14" s="49" t="str">
         <f>_xll.qlLastFixingQuote(E14&amp;"LastFixing_Quote",F14,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLibor4MLastFixing_Quote#0001</v>
+        <v>GbpLibor4MLastFixing_Quote#0002</v>
       </c>
       <c r="H14" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F14)</f>
@@ -1667,11 +1667,11 @@
       </c>
       <c r="F15" s="49" t="str">
         <f>_xll.qlLibor($E15,Currency,$C15,Currency&amp;$D15,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLibor5M#0001</v>
+        <v>GbpLibor5M#0002</v>
       </c>
       <c r="G15" s="49" t="str">
         <f>_xll.qlLastFixingQuote(E15&amp;"LastFixing_Quote",F15,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLibor5MLastFixing_Quote#0001</v>
+        <v>GbpLibor5MLastFixing_Quote#0002</v>
       </c>
       <c r="H15" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F15)</f>
@@ -1701,11 +1701,11 @@
       </c>
       <c r="F16" s="49" t="str">
         <f>_xll.qlLibor($E16,Currency,$C16,Currency&amp;$D16,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLibor6M#0001</v>
+        <v>GbpLibor6M#0002</v>
       </c>
       <c r="G16" s="49" t="str">
         <f>_xll.qlLastFixingQuote(E16&amp;"LastFixing_Quote",F16,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLibor6MLastFixing_Quote#0001</v>
+        <v>GbpLibor6MLastFixing_Quote#0002</v>
       </c>
       <c r="H16" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F16)</f>
@@ -1735,11 +1735,11 @@
       </c>
       <c r="F17" s="49" t="str">
         <f>_xll.qlLibor($E17,Currency,$C17,Currency&amp;$D17,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLibor7M#0001</v>
+        <v>GbpLibor7M#0002</v>
       </c>
       <c r="G17" s="49" t="str">
         <f>_xll.qlLastFixingQuote(E17&amp;"LastFixing_Quote",F17,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLibor7MLastFixing_Quote#0001</v>
+        <v>GbpLibor7MLastFixing_Quote#0002</v>
       </c>
       <c r="H17" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F17)</f>
@@ -1769,11 +1769,11 @@
       </c>
       <c r="F18" s="49" t="str">
         <f>_xll.qlLibor($E18,Currency,$C18,Currency&amp;$D18,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLibor8M#0001</v>
+        <v>GbpLibor8M#0002</v>
       </c>
       <c r="G18" s="49" t="str">
         <f>_xll.qlLastFixingQuote(E18&amp;"LastFixing_Quote",F18,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLibor8MLastFixing_Quote#0001</v>
+        <v>GbpLibor8MLastFixing_Quote#0002</v>
       </c>
       <c r="H18" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F18)</f>
@@ -1803,11 +1803,11 @@
       </c>
       <c r="F19" s="49" t="str">
         <f>_xll.qlLibor($E19,Currency,$C19,Currency&amp;$D19,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLibor9M#0001</v>
+        <v>GbpLibor9M#0002</v>
       </c>
       <c r="G19" s="49" t="str">
         <f>_xll.qlLastFixingQuote(E19&amp;"LastFixing_Quote",F19,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLibor9MLastFixing_Quote#0001</v>
+        <v>GbpLibor9MLastFixing_Quote#0002</v>
       </c>
       <c r="H19" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F19)</f>
@@ -1837,11 +1837,11 @@
       </c>
       <c r="F20" s="49" t="str">
         <f>_xll.qlLibor($E20,Currency,$C20,Currency&amp;$D20,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLibor10M#0001</v>
+        <v>GbpLibor10M#0002</v>
       </c>
       <c r="G20" s="49" t="str">
         <f>_xll.qlLastFixingQuote(E20&amp;"LastFixing_Quote",F20,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLibor10MLastFixing_Quote#0001</v>
+        <v>GbpLibor10MLastFixing_Quote#0002</v>
       </c>
       <c r="H20" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F20)</f>
@@ -1871,11 +1871,11 @@
       </c>
       <c r="F21" s="49" t="str">
         <f>_xll.qlLibor($E21,Currency,$C21,Currency&amp;$D21,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLibor11M#0001</v>
+        <v>GbpLibor11M#0002</v>
       </c>
       <c r="G21" s="49" t="str">
         <f>_xll.qlLastFixingQuote(E21&amp;"LastFixing_Quote",F21,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLibor11MLastFixing_Quote#0001</v>
+        <v>GbpLibor11MLastFixing_Quote#0002</v>
       </c>
       <c r="H21" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F21)</f>
@@ -1905,11 +1905,11 @@
       </c>
       <c r="F22" s="49" t="str">
         <f>_xll.qlLibor($E22,Currency,$C22,Currency&amp;$D22,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLibor1Y#0001</v>
+        <v>GbpLibor1Y#0002</v>
       </c>
       <c r="G22" s="49" t="str">
         <f>_xll.qlLastFixingQuote(E22&amp;"LastFixing_Quote",F22,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLibor1YLastFixing_Quote#0001</v>
+        <v>GbpLibor1YLastFixing_Quote#0002</v>
       </c>
       <c r="H22" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F22)</f>
@@ -2021,13 +2021,13 @@
         <f>PROPER(Currency)&amp;FamilyName&amp;FixingType&amp;".xml"</f>
         <v>GbpLiborSwapIsda.xml</v>
       </c>
-      <c r="F6" s="34" t="e">
-        <f ca="1">IF(Serialize,_xll.ohObjectSave(F7:F66,SerializationPath&amp;FileName,FileOverwrite,Serialize),"---")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="G6" s="37" t="e">
+      <c r="F6" s="34">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(F7:F66,SerializationPath&amp;FileName,FileOverwrite,,Serialize),"---")</f>
+        <v>60</v>
+      </c>
+      <c r="G6" s="37" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F6)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="H6" s="35"/>
       <c r="J6" s="14"/>
@@ -2046,7 +2046,7 @@
       </c>
       <c r="F7" s="38" t="str">
         <f>_xll.qlLiborSwap($E7,Currency,FixingType,$C7,Currency&amp;$D7,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLiborSwapIsda1Y#0001</v>
+        <v>GbpLiborSwapIsda1Y#0002</v>
       </c>
       <c r="G7" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F7)</f>
@@ -2072,7 +2072,7 @@
       </c>
       <c r="F8" s="38" t="str">
         <f>_xll.qlLiborSwap($E8,Currency,FixingType,$C8,Currency&amp;$D8,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLiborSwapIsda2Y#0001</v>
+        <v>GbpLiborSwapIsda2Y#0002</v>
       </c>
       <c r="G8" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F8)</f>
@@ -2098,7 +2098,7 @@
       </c>
       <c r="F9" s="38" t="str">
         <f>_xll.qlLiborSwap($E9,Currency,FixingType,$C9,Currency&amp;$D9,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLiborSwapIsda3Y#0001</v>
+        <v>GbpLiborSwapIsda3Y#0002</v>
       </c>
       <c r="G9" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F9)</f>
@@ -2124,7 +2124,7 @@
       </c>
       <c r="F10" s="38" t="str">
         <f>_xll.qlLiborSwap($E10,Currency,FixingType,$C10,Currency&amp;$D10,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLiborSwapIsda4Y#0001</v>
+        <v>GbpLiborSwapIsda4Y#0002</v>
       </c>
       <c r="G10" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F10)</f>
@@ -2150,7 +2150,7 @@
       </c>
       <c r="F11" s="38" t="str">
         <f>_xll.qlLiborSwap($E11,Currency,FixingType,$C11,Currency&amp;$D11,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLiborSwapIsda5Y#0001</v>
+        <v>GbpLiborSwapIsda5Y#0002</v>
       </c>
       <c r="G11" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F11)</f>
@@ -2176,7 +2176,7 @@
       </c>
       <c r="F12" s="38" t="str">
         <f>_xll.qlLiborSwap($E12,Currency,FixingType,$C12,Currency&amp;$D12,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLiborSwapIsda6Y#0001</v>
+        <v>GbpLiborSwapIsda6Y#0002</v>
       </c>
       <c r="G12" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F12)</f>
@@ -2202,7 +2202,7 @@
       </c>
       <c r="F13" s="38" t="str">
         <f>_xll.qlLiborSwap($E13,Currency,FixingType,$C13,Currency&amp;$D13,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLiborSwapIsda7Y#0001</v>
+        <v>GbpLiborSwapIsda7Y#0002</v>
       </c>
       <c r="G13" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F13)</f>
@@ -2228,7 +2228,7 @@
       </c>
       <c r="F14" s="38" t="str">
         <f>_xll.qlLiborSwap($E14,Currency,FixingType,$C14,Currency&amp;$D14,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLiborSwapIsda8Y#0001</v>
+        <v>GbpLiborSwapIsda8Y#0002</v>
       </c>
       <c r="G14" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F14)</f>
@@ -2254,7 +2254,7 @@
       </c>
       <c r="F15" s="38" t="str">
         <f>_xll.qlLiborSwap($E15,Currency,FixingType,$C15,Currency&amp;$D15,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLiborSwapIsda9Y#0001</v>
+        <v>GbpLiborSwapIsda9Y#0002</v>
       </c>
       <c r="G15" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F15)</f>
@@ -2280,7 +2280,7 @@
       </c>
       <c r="F16" s="38" t="str">
         <f>_xll.qlLiborSwap($E16,Currency,FixingType,$C16,Currency&amp;$D16,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLiborSwapIsda10Y#0001</v>
+        <v>GbpLiborSwapIsda10Y#0002</v>
       </c>
       <c r="G16" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F16)</f>
@@ -2306,7 +2306,7 @@
       </c>
       <c r="F17" s="38" t="str">
         <f>_xll.qlLiborSwap($E17,Currency,FixingType,$C17,Currency&amp;$D17,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLiborSwapIsda11Y#0001</v>
+        <v>GbpLiborSwapIsda11Y#0002</v>
       </c>
       <c r="G17" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F17)</f>
@@ -2332,7 +2332,7 @@
       </c>
       <c r="F18" s="38" t="str">
         <f>_xll.qlLiborSwap($E18,Currency,FixingType,$C18,Currency&amp;$D18,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLiborSwapIsda12Y#0001</v>
+        <v>GbpLiborSwapIsda12Y#0002</v>
       </c>
       <c r="G18" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F18)</f>
@@ -2358,7 +2358,7 @@
       </c>
       <c r="F19" s="38" t="str">
         <f>_xll.qlLiborSwap($E19,Currency,FixingType,$C19,Currency&amp;$D19,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLiborSwapIsda13Y#0001</v>
+        <v>GbpLiborSwapIsda13Y#0002</v>
       </c>
       <c r="G19" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F19)</f>
@@ -2384,7 +2384,7 @@
       </c>
       <c r="F20" s="38" t="str">
         <f>_xll.qlLiborSwap($E20,Currency,FixingType,$C20,Currency&amp;$D20,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLiborSwapIsda14Y#0001</v>
+        <v>GbpLiborSwapIsda14Y#0002</v>
       </c>
       <c r="G20" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F20)</f>
@@ -2410,7 +2410,7 @@
       </c>
       <c r="F21" s="38" t="str">
         <f>_xll.qlLiborSwap($E21,Currency,FixingType,$C21,Currency&amp;$D21,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLiborSwapIsda15Y#0001</v>
+        <v>GbpLiborSwapIsda15Y#0002</v>
       </c>
       <c r="G21" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F21)</f>
@@ -2436,7 +2436,7 @@
       </c>
       <c r="F22" s="38" t="str">
         <f>_xll.qlLiborSwap($E22,Currency,FixingType,$C22,Currency&amp;$D22,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLiborSwapIsda16Y#0001</v>
+        <v>GbpLiborSwapIsda16Y#0002</v>
       </c>
       <c r="G22" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F22)</f>
@@ -2462,7 +2462,7 @@
       </c>
       <c r="F23" s="38" t="str">
         <f>_xll.qlLiborSwap($E23,Currency,FixingType,$C23,Currency&amp;$D23,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLiborSwapIsda17Y#0001</v>
+        <v>GbpLiborSwapIsda17Y#0002</v>
       </c>
       <c r="G23" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F23)</f>
@@ -2488,7 +2488,7 @@
       </c>
       <c r="F24" s="38" t="str">
         <f>_xll.qlLiborSwap($E24,Currency,FixingType,$C24,Currency&amp;$D24,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLiborSwapIsda18Y#0001</v>
+        <v>GbpLiborSwapIsda18Y#0002</v>
       </c>
       <c r="G24" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F24)</f>
@@ -2514,7 +2514,7 @@
       </c>
       <c r="F25" s="38" t="str">
         <f>_xll.qlLiborSwap($E25,Currency,FixingType,$C25,Currency&amp;$D25,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLiborSwapIsda19Y#0001</v>
+        <v>GbpLiborSwapIsda19Y#0002</v>
       </c>
       <c r="G25" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F25)</f>
@@ -2540,7 +2540,7 @@
       </c>
       <c r="F26" s="38" t="str">
         <f>_xll.qlLiborSwap($E26,Currency,FixingType,$C26,Currency&amp;$D26,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLiborSwapIsda20Y#0001</v>
+        <v>GbpLiborSwapIsda20Y#0002</v>
       </c>
       <c r="G26" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F26)</f>
@@ -2566,7 +2566,7 @@
       </c>
       <c r="F27" s="38" t="str">
         <f>_xll.qlLiborSwap($E27,Currency,FixingType,$C27,Currency&amp;$D27,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLiborSwapIsda21Y#0001</v>
+        <v>GbpLiborSwapIsda21Y#0002</v>
       </c>
       <c r="G27" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F27)</f>
@@ -2592,7 +2592,7 @@
       </c>
       <c r="F28" s="38" t="str">
         <f>_xll.qlLiborSwap($E28,Currency,FixingType,$C28,Currency&amp;$D28,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLiborSwapIsda22Y#0001</v>
+        <v>GbpLiborSwapIsda22Y#0002</v>
       </c>
       <c r="G28" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F28)</f>
@@ -2618,7 +2618,7 @@
       </c>
       <c r="F29" s="38" t="str">
         <f>_xll.qlLiborSwap($E29,Currency,FixingType,$C29,Currency&amp;$D29,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLiborSwapIsda23Y#0001</v>
+        <v>GbpLiborSwapIsda23Y#0002</v>
       </c>
       <c r="G29" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F29)</f>
@@ -2644,7 +2644,7 @@
       </c>
       <c r="F30" s="38" t="str">
         <f>_xll.qlLiborSwap($E30,Currency,FixingType,$C30,Currency&amp;$D30,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLiborSwapIsda24Y#0001</v>
+        <v>GbpLiborSwapIsda24Y#0002</v>
       </c>
       <c r="G30" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F30)</f>
@@ -2670,7 +2670,7 @@
       </c>
       <c r="F31" s="38" t="str">
         <f>_xll.qlLiborSwap($E31,Currency,FixingType,$C31,Currency&amp;$D31,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLiborSwapIsda25Y#0001</v>
+        <v>GbpLiborSwapIsda25Y#0002</v>
       </c>
       <c r="G31" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F31)</f>
@@ -2696,7 +2696,7 @@
       </c>
       <c r="F32" s="38" t="str">
         <f>_xll.qlLiborSwap($E32,Currency,FixingType,$C32,Currency&amp;$D32,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLiborSwapIsda26Y#0001</v>
+        <v>GbpLiborSwapIsda26Y#0002</v>
       </c>
       <c r="G32" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F32)</f>
@@ -2722,7 +2722,7 @@
       </c>
       <c r="F33" s="38" t="str">
         <f>_xll.qlLiborSwap($E33,Currency,FixingType,$C33,Currency&amp;$D33,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLiborSwapIsda27Y#0001</v>
+        <v>GbpLiborSwapIsda27Y#0002</v>
       </c>
       <c r="G33" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F33)</f>
@@ -2748,7 +2748,7 @@
       </c>
       <c r="F34" s="38" t="str">
         <f>_xll.qlLiborSwap($E34,Currency,FixingType,$C34,Currency&amp;$D34,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLiborSwapIsda28Y#0001</v>
+        <v>GbpLiborSwapIsda28Y#0002</v>
       </c>
       <c r="G34" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F34)</f>
@@ -2774,7 +2774,7 @@
       </c>
       <c r="F35" s="38" t="str">
         <f>_xll.qlLiborSwap($E35,Currency,FixingType,$C35,Currency&amp;$D35,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLiborSwapIsda29Y#0001</v>
+        <v>GbpLiborSwapIsda29Y#0002</v>
       </c>
       <c r="G35" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F35)</f>
@@ -2800,7 +2800,7 @@
       </c>
       <c r="F36" s="38" t="str">
         <f>_xll.qlLiborSwap($E36,Currency,FixingType,$C36,Currency&amp;$D36,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLiborSwapIsda30Y#0001</v>
+        <v>GbpLiborSwapIsda30Y#0002</v>
       </c>
       <c r="G36" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F36)</f>
@@ -2826,7 +2826,7 @@
       </c>
       <c r="F37" s="38" t="str">
         <f>_xll.qlLiborSwap($E37,Currency,FixingType,$C37,Currency&amp;$D37,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLiborSwapIsda31Y#0001</v>
+        <v>GbpLiborSwapIsda31Y#0002</v>
       </c>
       <c r="G37" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F37)</f>
@@ -2852,7 +2852,7 @@
       </c>
       <c r="F38" s="38" t="str">
         <f>_xll.qlLiborSwap($E38,Currency,FixingType,$C38,Currency&amp;$D38,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLiborSwapIsda32Y#0001</v>
+        <v>GbpLiborSwapIsda32Y#0002</v>
       </c>
       <c r="G38" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F38)</f>
@@ -2878,7 +2878,7 @@
       </c>
       <c r="F39" s="38" t="str">
         <f>_xll.qlLiborSwap($E39,Currency,FixingType,$C39,Currency&amp;$D39,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLiborSwapIsda33Y#0001</v>
+        <v>GbpLiborSwapIsda33Y#0002</v>
       </c>
       <c r="G39" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F39)</f>
@@ -2904,7 +2904,7 @@
       </c>
       <c r="F40" s="38" t="str">
         <f>_xll.qlLiborSwap($E40,Currency,FixingType,$C40,Currency&amp;$D40,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLiborSwapIsda34Y#0001</v>
+        <v>GbpLiborSwapIsda34Y#0002</v>
       </c>
       <c r="G40" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F40)</f>
@@ -2930,7 +2930,7 @@
       </c>
       <c r="F41" s="38" t="str">
         <f>_xll.qlLiborSwap($E41,Currency,FixingType,$C41,Currency&amp;$D41,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLiborSwapIsda35Y#0001</v>
+        <v>GbpLiborSwapIsda35Y#0002</v>
       </c>
       <c r="G41" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F41)</f>
@@ -2956,7 +2956,7 @@
       </c>
       <c r="F42" s="38" t="str">
         <f>_xll.qlLiborSwap($E42,Currency,FixingType,$C42,Currency&amp;$D42,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLiborSwapIsda36Y#0001</v>
+        <v>GbpLiborSwapIsda36Y#0002</v>
       </c>
       <c r="G42" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F42)</f>
@@ -2982,7 +2982,7 @@
       </c>
       <c r="F43" s="38" t="str">
         <f>_xll.qlLiborSwap($E43,Currency,FixingType,$C43,Currency&amp;$D43,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLiborSwapIsda37Y#0001</v>
+        <v>GbpLiborSwapIsda37Y#0002</v>
       </c>
       <c r="G43" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F43)</f>
@@ -3008,7 +3008,7 @@
       </c>
       <c r="F44" s="38" t="str">
         <f>_xll.qlLiborSwap($E44,Currency,FixingType,$C44,Currency&amp;$D44,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLiborSwapIsda38Y#0001</v>
+        <v>GbpLiborSwapIsda38Y#0002</v>
       </c>
       <c r="G44" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F44)</f>
@@ -3034,7 +3034,7 @@
       </c>
       <c r="F45" s="38" t="str">
         <f>_xll.qlLiborSwap($E45,Currency,FixingType,$C45,Currency&amp;$D45,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLiborSwapIsda39Y#0001</v>
+        <v>GbpLiborSwapIsda39Y#0002</v>
       </c>
       <c r="G45" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F45)</f>
@@ -3060,7 +3060,7 @@
       </c>
       <c r="F46" s="38" t="str">
         <f>_xll.qlLiborSwap($E46,Currency,FixingType,$C46,Currency&amp;$D46,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLiborSwapIsda40Y#0001</v>
+        <v>GbpLiborSwapIsda40Y#0002</v>
       </c>
       <c r="G46" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F46)</f>
@@ -3086,7 +3086,7 @@
       </c>
       <c r="F47" s="38" t="str">
         <f>_xll.qlLiborSwap($E47,Currency,FixingType,$C47,Currency&amp;$D47,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLiborSwapIsda41Y#0001</v>
+        <v>GbpLiborSwapIsda41Y#0002</v>
       </c>
       <c r="G47" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F47)</f>
@@ -3112,7 +3112,7 @@
       </c>
       <c r="F48" s="38" t="str">
         <f>_xll.qlLiborSwap($E48,Currency,FixingType,$C48,Currency&amp;$D48,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLiborSwapIsda42Y#0001</v>
+        <v>GbpLiborSwapIsda42Y#0002</v>
       </c>
       <c r="G48" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F48)</f>
@@ -3138,7 +3138,7 @@
       </c>
       <c r="F49" s="38" t="str">
         <f>_xll.qlLiborSwap($E49,Currency,FixingType,$C49,Currency&amp;$D49,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLiborSwapIsda43Y#0001</v>
+        <v>GbpLiborSwapIsda43Y#0002</v>
       </c>
       <c r="G49" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F49)</f>
@@ -3164,7 +3164,7 @@
       </c>
       <c r="F50" s="38" t="str">
         <f>_xll.qlLiborSwap($E50,Currency,FixingType,$C50,Currency&amp;$D50,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLiborSwapIsda44Y#0001</v>
+        <v>GbpLiborSwapIsda44Y#0002</v>
       </c>
       <c r="G50" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F50)</f>
@@ -3190,7 +3190,7 @@
       </c>
       <c r="F51" s="38" t="str">
         <f>_xll.qlLiborSwap($E51,Currency,FixingType,$C51,Currency&amp;$D51,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLiborSwapIsda45Y#0001</v>
+        <v>GbpLiborSwapIsda45Y#0002</v>
       </c>
       <c r="G51" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F51)</f>
@@ -3216,7 +3216,7 @@
       </c>
       <c r="F52" s="38" t="str">
         <f>_xll.qlLiborSwap($E52,Currency,FixingType,$C52,Currency&amp;$D52,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLiborSwapIsda46Y#0001</v>
+        <v>GbpLiborSwapIsda46Y#0002</v>
       </c>
       <c r="G52" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F52)</f>
@@ -3242,7 +3242,7 @@
       </c>
       <c r="F53" s="38" t="str">
         <f>_xll.qlLiborSwap($E53,Currency,FixingType,$C53,Currency&amp;$D53,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLiborSwapIsda47Y#0001</v>
+        <v>GbpLiborSwapIsda47Y#0002</v>
       </c>
       <c r="G53" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F53)</f>
@@ -3268,7 +3268,7 @@
       </c>
       <c r="F54" s="38" t="str">
         <f>_xll.qlLiborSwap($E54,Currency,FixingType,$C54,Currency&amp;$D54,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLiborSwapIsda48Y#0001</v>
+        <v>GbpLiborSwapIsda48Y#0002</v>
       </c>
       <c r="G54" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F54)</f>
@@ -3294,7 +3294,7 @@
       </c>
       <c r="F55" s="38" t="str">
         <f>_xll.qlLiborSwap($E55,Currency,FixingType,$C55,Currency&amp;$D55,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLiborSwapIsda49Y#0001</v>
+        <v>GbpLiborSwapIsda49Y#0002</v>
       </c>
       <c r="G55" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F55)</f>
@@ -3320,7 +3320,7 @@
       </c>
       <c r="F56" s="38" t="str">
         <f>_xll.qlLiborSwap($E56,Currency,FixingType,$C56,Currency&amp;$D56,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLiborSwapIsda50Y#0001</v>
+        <v>GbpLiborSwapIsda50Y#0002</v>
       </c>
       <c r="G56" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F56)</f>
@@ -3346,7 +3346,7 @@
       </c>
       <c r="F57" s="38" t="str">
         <f>_xll.qlLiborSwap($E57,Currency,FixingType,$C57,Currency&amp;$D57,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLiborSwapIsda51Y#0001</v>
+        <v>GbpLiborSwapIsda51Y#0002</v>
       </c>
       <c r="G57" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F57)</f>
@@ -3372,7 +3372,7 @@
       </c>
       <c r="F58" s="38" t="str">
         <f>_xll.qlLiborSwap($E58,Currency,FixingType,$C58,Currency&amp;$D58,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLiborSwapIsda52Y#0001</v>
+        <v>GbpLiborSwapIsda52Y#0002</v>
       </c>
       <c r="G58" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F58)</f>
@@ -3398,7 +3398,7 @@
       </c>
       <c r="F59" s="38" t="str">
         <f>_xll.qlLiborSwap($E59,Currency,FixingType,$C59,Currency&amp;$D59,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLiborSwapIsda53Y#0001</v>
+        <v>GbpLiborSwapIsda53Y#0002</v>
       </c>
       <c r="G59" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F59)</f>
@@ -3424,7 +3424,7 @@
       </c>
       <c r="F60" s="38" t="str">
         <f>_xll.qlLiborSwap($E60,Currency,FixingType,$C60,Currency&amp;$D60,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLiborSwapIsda54Y#0001</v>
+        <v>GbpLiborSwapIsda54Y#0002</v>
       </c>
       <c r="G60" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F60)</f>
@@ -3450,7 +3450,7 @@
       </c>
       <c r="F61" s="38" t="str">
         <f>_xll.qlLiborSwap($E61,Currency,FixingType,$C61,Currency&amp;$D61,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLiborSwapIsda55Y#0001</v>
+        <v>GbpLiborSwapIsda55Y#0002</v>
       </c>
       <c r="G61" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F61)</f>
@@ -3476,7 +3476,7 @@
       </c>
       <c r="F62" s="38" t="str">
         <f>_xll.qlLiborSwap($E62,Currency,FixingType,$C62,Currency&amp;$D62,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLiborSwapIsda56Y#0001</v>
+        <v>GbpLiborSwapIsda56Y#0002</v>
       </c>
       <c r="G62" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F62)</f>
@@ -3502,7 +3502,7 @@
       </c>
       <c r="F63" s="38" t="str">
         <f>_xll.qlLiborSwap($E63,Currency,FixingType,$C63,Currency&amp;$D63,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLiborSwapIsda57Y#0001</v>
+        <v>GbpLiborSwapIsda57Y#0002</v>
       </c>
       <c r="G63" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F63)</f>
@@ -3528,7 +3528,7 @@
       </c>
       <c r="F64" s="38" t="str">
         <f>_xll.qlLiborSwap($E64,Currency,FixingType,$C64,Currency&amp;$D64,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLiborSwapIsda58Y#0001</v>
+        <v>GbpLiborSwapIsda58Y#0002</v>
       </c>
       <c r="G64" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F64)</f>
@@ -3554,7 +3554,7 @@
       </c>
       <c r="F65" s="38" t="str">
         <f>_xll.qlLiborSwap($E65,Currency,FixingType,$C65,Currency&amp;$D65,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLiborSwapIsda59Y#0001</v>
+        <v>GbpLiborSwapIsda59Y#0002</v>
       </c>
       <c r="G65" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F65)</f>
@@ -3580,7 +3580,7 @@
       </c>
       <c r="F66" s="38" t="str">
         <f>_xll.qlLiborSwap($E66,Currency,FixingType,$C66,Currency&amp;$D66,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLiborSwapIsda60Y#0001</v>
+        <v>GbpLiborSwapIsda60Y#0002</v>
       </c>
       <c r="G66" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F66)</f>
@@ -3684,14 +3684,14 @@
         <f>PROPER(Currency)&amp;FamilyName&amp;".xml"</f>
         <v>GbpLibor-Mx.xml</v>
       </c>
-      <c r="F5" s="48" t="e">
-        <f ca="1">IF(Serialize,_xll.ohObjectSave(F7:G22,SerializationPath&amp;FileName,FileOverwrite,Serialize),"---")</f>
-        <v>#NAME?</v>
+      <c r="F5" s="48">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(F7:G22,SerializationPath&amp;FileName,FileOverwrite,,Serialize),"---")</f>
+        <v>30</v>
       </c>
       <c r="G5" s="22"/>
-      <c r="H5" s="46" t="e">
+      <c r="H5" s="46" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F5)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="I5" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(G5)</f>
@@ -3767,11 +3767,11 @@
       </c>
       <c r="F8" s="49" t="str">
         <f>_xll.qlLibor($E8,Currency,$C8,Currency&amp;$D8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLibor-MxSW#0001</v>
+        <v>GbpLibor-MxSW#0002</v>
       </c>
       <c r="G8" s="49" t="str">
         <f>_xll.qlLastFixingQuote(E8&amp;"LastFixing_Quote",F8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLibor-MxSWLastFixing_Quote#0001</v>
+        <v>GbpLibor-MxSWLastFixing_Quote#0002</v>
       </c>
       <c r="H8" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F8)</f>
@@ -3801,11 +3801,11 @@
       </c>
       <c r="F9" s="49" t="str">
         <f>_xll.qlLibor($E9,Currency,$C9,Currency&amp;$D9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLibor-Mx2W#0001</v>
+        <v>GbpLibor-Mx2W#0002</v>
       </c>
       <c r="G9" s="49" t="str">
         <f>_xll.qlLastFixingQuote(E9&amp;"LastFixing_Quote",F9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLibor-Mx2WLastFixing_Quote#0001</v>
+        <v>GbpLibor-Mx2WLastFixing_Quote#0002</v>
       </c>
       <c r="H9" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F9)</f>
@@ -3835,11 +3835,11 @@
       </c>
       <c r="F10" s="49" t="str">
         <f>_xll.qlLibor($E10,Currency,$C10,Currency&amp;$D10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLibor-Mx3W#0001</v>
+        <v>GbpLibor-Mx3W#0002</v>
       </c>
       <c r="G10" s="49" t="str">
         <f>_xll.qlLastFixingQuote(E10&amp;"LastFixing_Quote",F10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLibor-Mx3WLastFixing_Quote#0001</v>
+        <v>GbpLibor-Mx3WLastFixing_Quote#0002</v>
       </c>
       <c r="H10" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F10)</f>
@@ -3869,11 +3869,11 @@
       </c>
       <c r="F11" s="49" t="str">
         <f>_xll.qlLibor($E11,Currency,$C11,Currency&amp;$D11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLibor-Mx1M#0001</v>
+        <v>GbpLibor-Mx1M#0002</v>
       </c>
       <c r="G11" s="49" t="str">
         <f>_xll.qlLastFixingQuote(E11&amp;"LastFixing_Quote",F11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLibor-Mx1MLastFixing_Quote#0001</v>
+        <v>GbpLibor-Mx1MLastFixing_Quote#0002</v>
       </c>
       <c r="H11" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F11)</f>
@@ -3903,11 +3903,11 @@
       </c>
       <c r="F12" s="49" t="str">
         <f>_xll.qlLibor($E12,Currency,$C12,Currency&amp;$D12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLibor-Mx2M#0001</v>
+        <v>GbpLibor-Mx2M#0002</v>
       </c>
       <c r="G12" s="49" t="str">
         <f>_xll.qlLastFixingQuote(E12&amp;"LastFixing_Quote",F12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLibor-Mx2MLastFixing_Quote#0001</v>
+        <v>GbpLibor-Mx2MLastFixing_Quote#0002</v>
       </c>
       <c r="H12" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F12)</f>
@@ -3937,11 +3937,11 @@
       </c>
       <c r="F13" s="49" t="str">
         <f>_xll.qlLibor($E13,Currency,$C13,Currency&amp;$D13,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLibor-Mx3M#0001</v>
+        <v>GbpLibor-Mx3M#0002</v>
       </c>
       <c r="G13" s="49" t="str">
         <f>_xll.qlLastFixingQuote(E13&amp;"LastFixing_Quote",F13,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLibor-Mx3MLastFixing_Quote#0001</v>
+        <v>GbpLibor-Mx3MLastFixing_Quote#0002</v>
       </c>
       <c r="H13" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F13)</f>
@@ -3971,11 +3971,11 @@
       </c>
       <c r="F14" s="49" t="str">
         <f>_xll.qlLibor($E14,Currency,$C14,Currency&amp;$D14,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLibor-Mx4M#0001</v>
+        <v>GbpLibor-Mx4M#0002</v>
       </c>
       <c r="G14" s="49" t="str">
         <f>_xll.qlLastFixingQuote(E14&amp;"LastFixing_Quote",F14,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLibor-Mx4MLastFixing_Quote#0001</v>
+        <v>GbpLibor-Mx4MLastFixing_Quote#0002</v>
       </c>
       <c r="H14" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F14)</f>
@@ -4005,11 +4005,11 @@
       </c>
       <c r="F15" s="49" t="str">
         <f>_xll.qlLibor($E15,Currency,$C15,Currency&amp;$D15,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLibor-Mx5M#0001</v>
+        <v>GbpLibor-Mx5M#0002</v>
       </c>
       <c r="G15" s="49" t="str">
         <f>_xll.qlLastFixingQuote(E15&amp;"LastFixing_Quote",F15,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLibor-Mx5MLastFixing_Quote#0001</v>
+        <v>GbpLibor-Mx5MLastFixing_Quote#0002</v>
       </c>
       <c r="H15" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F15)</f>
@@ -4039,11 +4039,11 @@
       </c>
       <c r="F16" s="49" t="str">
         <f>_xll.qlLibor($E16,Currency,$C16,Currency&amp;$D16,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLibor-Mx6M#0001</v>
+        <v>GbpLibor-Mx6M#0002</v>
       </c>
       <c r="G16" s="49" t="str">
         <f>_xll.qlLastFixingQuote(E16&amp;"LastFixing_Quote",F16,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLibor-Mx6MLastFixing_Quote#0001</v>
+        <v>GbpLibor-Mx6MLastFixing_Quote#0002</v>
       </c>
       <c r="H16" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F16)</f>
@@ -4073,11 +4073,11 @@
       </c>
       <c r="F17" s="49" t="str">
         <f>_xll.qlLibor($E17,Currency,$C17,Currency&amp;$D17,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLibor-Mx7M#0001</v>
+        <v>GbpLibor-Mx7M#0002</v>
       </c>
       <c r="G17" s="49" t="str">
         <f>_xll.qlLastFixingQuote(E17&amp;"LastFixing_Quote",F17,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLibor-Mx7MLastFixing_Quote#0001</v>
+        <v>GbpLibor-Mx7MLastFixing_Quote#0002</v>
       </c>
       <c r="H17" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F17)</f>
@@ -4107,11 +4107,11 @@
       </c>
       <c r="F18" s="49" t="str">
         <f>_xll.qlLibor($E18,Currency,$C18,Currency&amp;$D18,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLibor-Mx8M#0001</v>
+        <v>GbpLibor-Mx8M#0002</v>
       </c>
       <c r="G18" s="49" t="str">
         <f>_xll.qlLastFixingQuote(E18&amp;"LastFixing_Quote",F18,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLibor-Mx8MLastFixing_Quote#0001</v>
+        <v>GbpLibor-Mx8MLastFixing_Quote#0002</v>
       </c>
       <c r="H18" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F18)</f>
@@ -4141,11 +4141,11 @@
       </c>
       <c r="F19" s="49" t="str">
         <f>_xll.qlLibor($E19,Currency,$C19,Currency&amp;$D19,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLibor-Mx9M#0001</v>
+        <v>GbpLibor-Mx9M#0002</v>
       </c>
       <c r="G19" s="49" t="str">
         <f>_xll.qlLastFixingQuote(E19&amp;"LastFixing_Quote",F19,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLibor-Mx9MLastFixing_Quote#0001</v>
+        <v>GbpLibor-Mx9MLastFixing_Quote#0002</v>
       </c>
       <c r="H19" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F19)</f>
@@ -4175,11 +4175,11 @@
       </c>
       <c r="F20" s="49" t="str">
         <f>_xll.qlLibor($E20,Currency,$C20,Currency&amp;$D20,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLibor-Mx10M#0001</v>
+        <v>GbpLibor-Mx10M#0002</v>
       </c>
       <c r="G20" s="49" t="str">
         <f>_xll.qlLastFixingQuote(E20&amp;"LastFixing_Quote",F20,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLibor-Mx10MLastFixing_Quote#0001</v>
+        <v>GbpLibor-Mx10MLastFixing_Quote#0002</v>
       </c>
       <c r="H20" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F20)</f>
@@ -4209,11 +4209,11 @@
       </c>
       <c r="F21" s="49" t="str">
         <f>_xll.qlLibor($E21,Currency,$C21,Currency&amp;$D21,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLibor-Mx11M#0001</v>
+        <v>GbpLibor-Mx11M#0002</v>
       </c>
       <c r="G21" s="49" t="str">
         <f>_xll.qlLastFixingQuote(E21&amp;"LastFixing_Quote",F21,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLibor-Mx11MLastFixing_Quote#0001</v>
+        <v>GbpLibor-Mx11MLastFixing_Quote#0002</v>
       </c>
       <c r="H21" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F21)</f>
@@ -4243,11 +4243,11 @@
       </c>
       <c r="F22" s="49" t="str">
         <f>_xll.qlLibor($E22,Currency,$C22,Currency&amp;$D22,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLibor-Mx1Y#0001</v>
+        <v>GbpLibor-Mx1Y#0002</v>
       </c>
       <c r="G22" s="49" t="str">
         <f>_xll.qlLastFixingQuote(E22&amp;"LastFixing_Quote",F22,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLibor-Mx1YLastFixing_Quote#0001</v>
+        <v>GbpLibor-Mx1YLastFixing_Quote#0002</v>
       </c>
       <c r="H22" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F22)</f>
@@ -4359,13 +4359,13 @@
         <f>PROPER(Currency)&amp;FamilyName&amp;FixingType&amp;".xml"</f>
         <v>GbpLiborSwap-MxIsda.xml</v>
       </c>
-      <c r="F6" s="34" t="e">
-        <f ca="1">IF(Serialize,_xll.ohObjectSave(F7:F66,SerializationPath&amp;FileName,FileOverwrite,Serialize),"---")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="G6" s="37" t="e">
+      <c r="F6" s="34">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(F7:F66,SerializationPath&amp;FileName,FileOverwrite,,Serialize),"---")</f>
+        <v>60</v>
+      </c>
+      <c r="G6" s="37" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F6)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="H6" s="35"/>
       <c r="J6" s="14"/>
@@ -4384,7 +4384,7 @@
       </c>
       <c r="F7" s="38" t="str">
         <f>_xll.qlLiborSwap($E7,Currency,FixingType,$C7,Currency&amp;$D7,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLiborSwap-MxIsda1Y#0001</v>
+        <v>GbpLiborSwap-MxIsda1Y#0002</v>
       </c>
       <c r="G7" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F7)</f>
@@ -4410,7 +4410,7 @@
       </c>
       <c r="F8" s="38" t="str">
         <f>_xll.qlLiborSwap($E8,Currency,FixingType,$C8,Currency&amp;$D8,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLiborSwap-MxIsda2Y#0001</v>
+        <v>GbpLiborSwap-MxIsda2Y#0002</v>
       </c>
       <c r="G8" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F8)</f>
@@ -4436,7 +4436,7 @@
       </c>
       <c r="F9" s="38" t="str">
         <f>_xll.qlLiborSwap($E9,Currency,FixingType,$C9,Currency&amp;$D9,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLiborSwap-MxIsda3Y#0001</v>
+        <v>GbpLiborSwap-MxIsda3Y#0002</v>
       </c>
       <c r="G9" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F9)</f>
@@ -4462,7 +4462,7 @@
       </c>
       <c r="F10" s="38" t="str">
         <f>_xll.qlLiborSwap($E10,Currency,FixingType,$C10,Currency&amp;$D10,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLiborSwap-MxIsda4Y#0001</v>
+        <v>GbpLiborSwap-MxIsda4Y#0002</v>
       </c>
       <c r="G10" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F10)</f>
@@ -4488,7 +4488,7 @@
       </c>
       <c r="F11" s="38" t="str">
         <f>_xll.qlLiborSwap($E11,Currency,FixingType,$C11,Currency&amp;$D11,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLiborSwap-MxIsda5Y#0001</v>
+        <v>GbpLiborSwap-MxIsda5Y#0002</v>
       </c>
       <c r="G11" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F11)</f>
@@ -4514,7 +4514,7 @@
       </c>
       <c r="F12" s="38" t="str">
         <f>_xll.qlLiborSwap($E12,Currency,FixingType,$C12,Currency&amp;$D12,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLiborSwap-MxIsda6Y#0001</v>
+        <v>GbpLiborSwap-MxIsda6Y#0002</v>
       </c>
       <c r="G12" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F12)</f>
@@ -4540,7 +4540,7 @@
       </c>
       <c r="F13" s="38" t="str">
         <f>_xll.qlLiborSwap($E13,Currency,FixingType,$C13,Currency&amp;$D13,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLiborSwap-MxIsda7Y#0001</v>
+        <v>GbpLiborSwap-MxIsda7Y#0002</v>
       </c>
       <c r="G13" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F13)</f>
@@ -4566,7 +4566,7 @@
       </c>
       <c r="F14" s="38" t="str">
         <f>_xll.qlLiborSwap($E14,Currency,FixingType,$C14,Currency&amp;$D14,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLiborSwap-MxIsda8Y#0001</v>
+        <v>GbpLiborSwap-MxIsda8Y#0002</v>
       </c>
       <c r="G14" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F14)</f>
@@ -4592,7 +4592,7 @@
       </c>
       <c r="F15" s="38" t="str">
         <f>_xll.qlLiborSwap($E15,Currency,FixingType,$C15,Currency&amp;$D15,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLiborSwap-MxIsda9Y#0001</v>
+        <v>GbpLiborSwap-MxIsda9Y#0002</v>
       </c>
       <c r="G15" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F15)</f>
@@ -4618,7 +4618,7 @@
       </c>
       <c r="F16" s="38" t="str">
         <f>_xll.qlLiborSwap($E16,Currency,FixingType,$C16,Currency&amp;$D16,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLiborSwap-MxIsda10Y#0001</v>
+        <v>GbpLiborSwap-MxIsda10Y#0002</v>
       </c>
       <c r="G16" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F16)</f>
@@ -4644,7 +4644,7 @@
       </c>
       <c r="F17" s="38" t="str">
         <f>_xll.qlLiborSwap($E17,Currency,FixingType,$C17,Currency&amp;$D17,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLiborSwap-MxIsda11Y#0001</v>
+        <v>GbpLiborSwap-MxIsda11Y#0002</v>
       </c>
       <c r="G17" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F17)</f>
@@ -4670,7 +4670,7 @@
       </c>
       <c r="F18" s="38" t="str">
         <f>_xll.qlLiborSwap($E18,Currency,FixingType,$C18,Currency&amp;$D18,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLiborSwap-MxIsda12Y#0001</v>
+        <v>GbpLiborSwap-MxIsda12Y#0002</v>
       </c>
       <c r="G18" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F18)</f>
@@ -4696,7 +4696,7 @@
       </c>
       <c r="F19" s="38" t="str">
         <f>_xll.qlLiborSwap($E19,Currency,FixingType,$C19,Currency&amp;$D19,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLiborSwap-MxIsda13Y#0001</v>
+        <v>GbpLiborSwap-MxIsda13Y#0002</v>
       </c>
       <c r="G19" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F19)</f>
@@ -4722,7 +4722,7 @@
       </c>
       <c r="F20" s="38" t="str">
         <f>_xll.qlLiborSwap($E20,Currency,FixingType,$C20,Currency&amp;$D20,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLiborSwap-MxIsda14Y#0001</v>
+        <v>GbpLiborSwap-MxIsda14Y#0002</v>
       </c>
       <c r="G20" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F20)</f>
@@ -4748,7 +4748,7 @@
       </c>
       <c r="F21" s="38" t="str">
         <f>_xll.qlLiborSwap($E21,Currency,FixingType,$C21,Currency&amp;$D21,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLiborSwap-MxIsda15Y#0001</v>
+        <v>GbpLiborSwap-MxIsda15Y#0002</v>
       </c>
       <c r="G21" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F21)</f>
@@ -4774,7 +4774,7 @@
       </c>
       <c r="F22" s="38" t="str">
         <f>_xll.qlLiborSwap($E22,Currency,FixingType,$C22,Currency&amp;$D22,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLiborSwap-MxIsda16Y#0001</v>
+        <v>GbpLiborSwap-MxIsda16Y#0002</v>
       </c>
       <c r="G22" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F22)</f>
@@ -4800,7 +4800,7 @@
       </c>
       <c r="F23" s="38" t="str">
         <f>_xll.qlLiborSwap($E23,Currency,FixingType,$C23,Currency&amp;$D23,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLiborSwap-MxIsda17Y#0001</v>
+        <v>GbpLiborSwap-MxIsda17Y#0002</v>
       </c>
       <c r="G23" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F23)</f>
@@ -4826,7 +4826,7 @@
       </c>
       <c r="F24" s="38" t="str">
         <f>_xll.qlLiborSwap($E24,Currency,FixingType,$C24,Currency&amp;$D24,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLiborSwap-MxIsda18Y#0001</v>
+        <v>GbpLiborSwap-MxIsda18Y#0002</v>
       </c>
       <c r="G24" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F24)</f>
@@ -4852,7 +4852,7 @@
       </c>
       <c r="F25" s="38" t="str">
         <f>_xll.qlLiborSwap($E25,Currency,FixingType,$C25,Currency&amp;$D25,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLiborSwap-MxIsda19Y#0001</v>
+        <v>GbpLiborSwap-MxIsda19Y#0002</v>
       </c>
       <c r="G25" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F25)</f>
@@ -4878,7 +4878,7 @@
       </c>
       <c r="F26" s="38" t="str">
         <f>_xll.qlLiborSwap($E26,Currency,FixingType,$C26,Currency&amp;$D26,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLiborSwap-MxIsda20Y#0001</v>
+        <v>GbpLiborSwap-MxIsda20Y#0002</v>
       </c>
       <c r="G26" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F26)</f>
@@ -4904,7 +4904,7 @@
       </c>
       <c r="F27" s="38" t="str">
         <f>_xll.qlLiborSwap($E27,Currency,FixingType,$C27,Currency&amp;$D27,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLiborSwap-MxIsda21Y#0001</v>
+        <v>GbpLiborSwap-MxIsda21Y#0002</v>
       </c>
       <c r="G27" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F27)</f>
@@ -4930,7 +4930,7 @@
       </c>
       <c r="F28" s="38" t="str">
         <f>_xll.qlLiborSwap($E28,Currency,FixingType,$C28,Currency&amp;$D28,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLiborSwap-MxIsda22Y#0001</v>
+        <v>GbpLiborSwap-MxIsda22Y#0002</v>
       </c>
       <c r="G28" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F28)</f>
@@ -4956,7 +4956,7 @@
       </c>
       <c r="F29" s="38" t="str">
         <f>_xll.qlLiborSwap($E29,Currency,FixingType,$C29,Currency&amp;$D29,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLiborSwap-MxIsda23Y#0001</v>
+        <v>GbpLiborSwap-MxIsda23Y#0002</v>
       </c>
       <c r="G29" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F29)</f>
@@ -4982,7 +4982,7 @@
       </c>
       <c r="F30" s="38" t="str">
         <f>_xll.qlLiborSwap($E30,Currency,FixingType,$C30,Currency&amp;$D30,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLiborSwap-MxIsda24Y#0001</v>
+        <v>GbpLiborSwap-MxIsda24Y#0002</v>
       </c>
       <c r="G30" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F30)</f>
@@ -5008,7 +5008,7 @@
       </c>
       <c r="F31" s="38" t="str">
         <f>_xll.qlLiborSwap($E31,Currency,FixingType,$C31,Currency&amp;$D31,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLiborSwap-MxIsda25Y#0001</v>
+        <v>GbpLiborSwap-MxIsda25Y#0002</v>
       </c>
       <c r="G31" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F31)</f>
@@ -5034,7 +5034,7 @@
       </c>
       <c r="F32" s="38" t="str">
         <f>_xll.qlLiborSwap($E32,Currency,FixingType,$C32,Currency&amp;$D32,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLiborSwap-MxIsda26Y#0001</v>
+        <v>GbpLiborSwap-MxIsda26Y#0002</v>
       </c>
       <c r="G32" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F32)</f>
@@ -5060,7 +5060,7 @@
       </c>
       <c r="F33" s="38" t="str">
         <f>_xll.qlLiborSwap($E33,Currency,FixingType,$C33,Currency&amp;$D33,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLiborSwap-MxIsda27Y#0001</v>
+        <v>GbpLiborSwap-MxIsda27Y#0002</v>
       </c>
       <c r="G33" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F33)</f>
@@ -5086,7 +5086,7 @@
       </c>
       <c r="F34" s="38" t="str">
         <f>_xll.qlLiborSwap($E34,Currency,FixingType,$C34,Currency&amp;$D34,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLiborSwap-MxIsda28Y#0001</v>
+        <v>GbpLiborSwap-MxIsda28Y#0002</v>
       </c>
       <c r="G34" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F34)</f>
@@ -5112,7 +5112,7 @@
       </c>
       <c r="F35" s="38" t="str">
         <f>_xll.qlLiborSwap($E35,Currency,FixingType,$C35,Currency&amp;$D35,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLiborSwap-MxIsda29Y#0001</v>
+        <v>GbpLiborSwap-MxIsda29Y#0002</v>
       </c>
       <c r="G35" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F35)</f>
@@ -5138,7 +5138,7 @@
       </c>
       <c r="F36" s="38" t="str">
         <f>_xll.qlLiborSwap($E36,Currency,FixingType,$C36,Currency&amp;$D36,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLiborSwap-MxIsda30Y#0001</v>
+        <v>GbpLiborSwap-MxIsda30Y#0002</v>
       </c>
       <c r="G36" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F36)</f>
@@ -5164,7 +5164,7 @@
       </c>
       <c r="F37" s="38" t="str">
         <f>_xll.qlLiborSwap($E37,Currency,FixingType,$C37,Currency&amp;$D37,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLiborSwap-MxIsda31Y#0001</v>
+        <v>GbpLiborSwap-MxIsda31Y#0002</v>
       </c>
       <c r="G37" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F37)</f>
@@ -5190,7 +5190,7 @@
       </c>
       <c r="F38" s="38" t="str">
         <f>_xll.qlLiborSwap($E38,Currency,FixingType,$C38,Currency&amp;$D38,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLiborSwap-MxIsda32Y#0001</v>
+        <v>GbpLiborSwap-MxIsda32Y#0002</v>
       </c>
       <c r="G38" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F38)</f>
@@ -5216,7 +5216,7 @@
       </c>
       <c r="F39" s="38" t="str">
         <f>_xll.qlLiborSwap($E39,Currency,FixingType,$C39,Currency&amp;$D39,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLiborSwap-MxIsda33Y#0001</v>
+        <v>GbpLiborSwap-MxIsda33Y#0002</v>
       </c>
       <c r="G39" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F39)</f>
@@ -5242,7 +5242,7 @@
       </c>
       <c r="F40" s="38" t="str">
         <f>_xll.qlLiborSwap($E40,Currency,FixingType,$C40,Currency&amp;$D40,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLiborSwap-MxIsda34Y#0001</v>
+        <v>GbpLiborSwap-MxIsda34Y#0002</v>
       </c>
       <c r="G40" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F40)</f>
@@ -5268,7 +5268,7 @@
       </c>
       <c r="F41" s="38" t="str">
         <f>_xll.qlLiborSwap($E41,Currency,FixingType,$C41,Currency&amp;$D41,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLiborSwap-MxIsda35Y#0001</v>
+        <v>GbpLiborSwap-MxIsda35Y#0002</v>
       </c>
       <c r="G41" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F41)</f>
@@ -5294,7 +5294,7 @@
       </c>
       <c r="F42" s="38" t="str">
         <f>_xll.qlLiborSwap($E42,Currency,FixingType,$C42,Currency&amp;$D42,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLiborSwap-MxIsda36Y#0001</v>
+        <v>GbpLiborSwap-MxIsda36Y#0002</v>
       </c>
       <c r="G42" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F42)</f>
@@ -5320,7 +5320,7 @@
       </c>
       <c r="F43" s="38" t="str">
         <f>_xll.qlLiborSwap($E43,Currency,FixingType,$C43,Currency&amp;$D43,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLiborSwap-MxIsda37Y#0001</v>
+        <v>GbpLiborSwap-MxIsda37Y#0002</v>
       </c>
       <c r="G43" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F43)</f>
@@ -5346,7 +5346,7 @@
       </c>
       <c r="F44" s="38" t="str">
         <f>_xll.qlLiborSwap($E44,Currency,FixingType,$C44,Currency&amp;$D44,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLiborSwap-MxIsda38Y#0001</v>
+        <v>GbpLiborSwap-MxIsda38Y#0002</v>
       </c>
       <c r="G44" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F44)</f>
@@ -5372,7 +5372,7 @@
       </c>
       <c r="F45" s="38" t="str">
         <f>_xll.qlLiborSwap($E45,Currency,FixingType,$C45,Currency&amp;$D45,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLiborSwap-MxIsda39Y#0001</v>
+        <v>GbpLiborSwap-MxIsda39Y#0002</v>
       </c>
       <c r="G45" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F45)</f>
@@ -5398,7 +5398,7 @@
       </c>
       <c r="F46" s="38" t="str">
         <f>_xll.qlLiborSwap($E46,Currency,FixingType,$C46,Currency&amp;$D46,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLiborSwap-MxIsda40Y#0001</v>
+        <v>GbpLiborSwap-MxIsda40Y#0002</v>
       </c>
       <c r="G46" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F46)</f>
@@ -5424,7 +5424,7 @@
       </c>
       <c r="F47" s="38" t="str">
         <f>_xll.qlLiborSwap($E47,Currency,FixingType,$C47,Currency&amp;$D47,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLiborSwap-MxIsda41Y#0001</v>
+        <v>GbpLiborSwap-MxIsda41Y#0002</v>
       </c>
       <c r="G47" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F47)</f>
@@ -5450,7 +5450,7 @@
       </c>
       <c r="F48" s="38" t="str">
         <f>_xll.qlLiborSwap($E48,Currency,FixingType,$C48,Currency&amp;$D48,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLiborSwap-MxIsda42Y#0001</v>
+        <v>GbpLiborSwap-MxIsda42Y#0002</v>
       </c>
       <c r="G48" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F48)</f>
@@ -5476,7 +5476,7 @@
       </c>
       <c r="F49" s="38" t="str">
         <f>_xll.qlLiborSwap($E49,Currency,FixingType,$C49,Currency&amp;$D49,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLiborSwap-MxIsda43Y#0001</v>
+        <v>GbpLiborSwap-MxIsda43Y#0002</v>
       </c>
       <c r="G49" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F49)</f>
@@ -5502,7 +5502,7 @@
       </c>
       <c r="F50" s="38" t="str">
         <f>_xll.qlLiborSwap($E50,Currency,FixingType,$C50,Currency&amp;$D50,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLiborSwap-MxIsda44Y#0001</v>
+        <v>GbpLiborSwap-MxIsda44Y#0002</v>
       </c>
       <c r="G50" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F50)</f>
@@ -5528,7 +5528,7 @@
       </c>
       <c r="F51" s="38" t="str">
         <f>_xll.qlLiborSwap($E51,Currency,FixingType,$C51,Currency&amp;$D51,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLiborSwap-MxIsda45Y#0001</v>
+        <v>GbpLiborSwap-MxIsda45Y#0002</v>
       </c>
       <c r="G51" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F51)</f>
@@ -5554,7 +5554,7 @@
       </c>
       <c r="F52" s="38" t="str">
         <f>_xll.qlLiborSwap($E52,Currency,FixingType,$C52,Currency&amp;$D52,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLiborSwap-MxIsda46Y#0001</v>
+        <v>GbpLiborSwap-MxIsda46Y#0002</v>
       </c>
       <c r="G52" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F52)</f>
@@ -5580,7 +5580,7 @@
       </c>
       <c r="F53" s="38" t="str">
         <f>_xll.qlLiborSwap($E53,Currency,FixingType,$C53,Currency&amp;$D53,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLiborSwap-MxIsda47Y#0001</v>
+        <v>GbpLiborSwap-MxIsda47Y#0002</v>
       </c>
       <c r="G53" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F53)</f>
@@ -5606,7 +5606,7 @@
       </c>
       <c r="F54" s="38" t="str">
         <f>_xll.qlLiborSwap($E54,Currency,FixingType,$C54,Currency&amp;$D54,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLiborSwap-MxIsda48Y#0001</v>
+        <v>GbpLiborSwap-MxIsda48Y#0002</v>
       </c>
       <c r="G54" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F54)</f>
@@ -5632,7 +5632,7 @@
       </c>
       <c r="F55" s="38" t="str">
         <f>_xll.qlLiborSwap($E55,Currency,FixingType,$C55,Currency&amp;$D55,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLiborSwap-MxIsda49Y#0001</v>
+        <v>GbpLiborSwap-MxIsda49Y#0002</v>
       </c>
       <c r="G55" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F55)</f>
@@ -5658,7 +5658,7 @@
       </c>
       <c r="F56" s="38" t="str">
         <f>_xll.qlLiborSwap($E56,Currency,FixingType,$C56,Currency&amp;$D56,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLiborSwap-MxIsda50Y#0001</v>
+        <v>GbpLiborSwap-MxIsda50Y#0002</v>
       </c>
       <c r="G56" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F56)</f>
@@ -5684,7 +5684,7 @@
       </c>
       <c r="F57" s="38" t="str">
         <f>_xll.qlLiborSwap($E57,Currency,FixingType,$C57,Currency&amp;$D57,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLiborSwap-MxIsda51Y#0001</v>
+        <v>GbpLiborSwap-MxIsda51Y#0002</v>
       </c>
       <c r="G57" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F57)</f>
@@ -5710,7 +5710,7 @@
       </c>
       <c r="F58" s="38" t="str">
         <f>_xll.qlLiborSwap($E58,Currency,FixingType,$C58,Currency&amp;$D58,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLiborSwap-MxIsda52Y#0001</v>
+        <v>GbpLiborSwap-MxIsda52Y#0002</v>
       </c>
       <c r="G58" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F58)</f>
@@ -5736,7 +5736,7 @@
       </c>
       <c r="F59" s="38" t="str">
         <f>_xll.qlLiborSwap($E59,Currency,FixingType,$C59,Currency&amp;$D59,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLiborSwap-MxIsda53Y#0001</v>
+        <v>GbpLiborSwap-MxIsda53Y#0002</v>
       </c>
       <c r="G59" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F59)</f>
@@ -5762,7 +5762,7 @@
       </c>
       <c r="F60" s="38" t="str">
         <f>_xll.qlLiborSwap($E60,Currency,FixingType,$C60,Currency&amp;$D60,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLiborSwap-MxIsda54Y#0001</v>
+        <v>GbpLiborSwap-MxIsda54Y#0002</v>
       </c>
       <c r="G60" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F60)</f>
@@ -5788,7 +5788,7 @@
       </c>
       <c r="F61" s="38" t="str">
         <f>_xll.qlLiborSwap($E61,Currency,FixingType,$C61,Currency&amp;$D61,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLiborSwap-MxIsda55Y#0001</v>
+        <v>GbpLiborSwap-MxIsda55Y#0002</v>
       </c>
       <c r="G61" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F61)</f>
@@ -5814,7 +5814,7 @@
       </c>
       <c r="F62" s="38" t="str">
         <f>_xll.qlLiborSwap($E62,Currency,FixingType,$C62,Currency&amp;$D62,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLiborSwap-MxIsda56Y#0001</v>
+        <v>GbpLiborSwap-MxIsda56Y#0002</v>
       </c>
       <c r="G62" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F62)</f>
@@ -5840,7 +5840,7 @@
       </c>
       <c r="F63" s="38" t="str">
         <f>_xll.qlLiborSwap($E63,Currency,FixingType,$C63,Currency&amp;$D63,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLiborSwap-MxIsda57Y#0001</v>
+        <v>GbpLiborSwap-MxIsda57Y#0002</v>
       </c>
       <c r="G63" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F63)</f>
@@ -5866,7 +5866,7 @@
       </c>
       <c r="F64" s="38" t="str">
         <f>_xll.qlLiborSwap($E64,Currency,FixingType,$C64,Currency&amp;$D64,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLiborSwap-MxIsda58Y#0001</v>
+        <v>GbpLiborSwap-MxIsda58Y#0002</v>
       </c>
       <c r="G64" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F64)</f>
@@ -5892,7 +5892,7 @@
       </c>
       <c r="F65" s="38" t="str">
         <f>_xll.qlLiborSwap($E65,Currency,FixingType,$C65,Currency&amp;$D65,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLiborSwap-MxIsda59Y#0001</v>
+        <v>GbpLiborSwap-MxIsda59Y#0002</v>
       </c>
       <c r="G65" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F65)</f>
@@ -5918,7 +5918,7 @@
       </c>
       <c r="F66" s="38" t="str">
         <f>_xll.qlLiborSwap($E66,Currency,FixingType,$C66,Currency&amp;$D66,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLiborSwap-MxIsda60Y#0001</v>
+        <v>GbpLiborSwap-MxIsda60Y#0002</v>
       </c>
       <c r="G66" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F66)</f>
